--- a/pm2_rules_summary_template.xlsx
+++ b/pm2_rules_summary_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEE3C9D-3E11-4B12-96BC-7C9E6883B06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E175EA0-F494-4D55-8CFA-A3AE2A857B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>

--- a/pm2_rules_summary_template.xlsx
+++ b/pm2_rules_summary_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E175EA0-F494-4D55-8CFA-A3AE2A857B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55032AB5-C789-47CA-A55C-7691CFF4EB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="270">
   <si>
     <t>Rule</t>
   </si>
@@ -823,6 +823,33 @@
   </si>
   <si>
     <t xml:space="preserve">IRI values &lt; 30 and &gt; 400 should be reviewed and where valid; explanation provided in submission comments. </t>
+  </si>
+  <si>
+    <t>SJPM230</t>
+  </si>
+  <si>
+    <t>SJPM231</t>
+  </si>
+  <si>
+    <t>SJPM232</t>
+  </si>
+  <si>
+    <t>Cracking_Percent event segments must align with with the Begin and End points for IRI segments.</t>
+  </si>
+  <si>
+    <t>Rutting event segments must align with with the Begin and End points for IRI segments.</t>
+  </si>
+  <si>
+    <t>Faulting event segments must align with with the Begin and End points for IRI segments.</t>
+  </si>
+  <si>
+    <t>SJ-PM2-30</t>
+  </si>
+  <si>
+    <t>SJ-PM2-31</t>
+  </si>
+  <si>
+    <t>SJ-PM2-32</t>
   </si>
 </sst>
 </file>
@@ -1268,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
   <dimension ref="A1:GM111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,24 +1786,48 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="B21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>CRACKING_PERCENT,IRI</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>268</v>
+      </c>
       <c r="B22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>RUTTING,IRI</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="B23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>FAULTING,IRI</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2982,7 +3033,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3046,7 +3097,7 @@
         <v>224</v>
       </c>
       <c r="B3" s="5" t="str">
-        <f t="shared" ref="B3:B20" ca="1" si="0">IF(ISREF(INDIRECT(A3&amp;"!A1")),HYPERLINK("#"&amp;A3&amp;"!A1",LEFT(A3,2)&amp;"-"&amp;MID(A3,3,3)&amp;"-"&amp;RIGHT(A3,2)),HYPERLINK(,LEFT(A3,2)&amp;"-"&amp;MID(A3,3,3)&amp;"-"&amp;RIGHT(A3,2)))</f>
+        <f t="shared" ref="B3:B23" ca="1" si="0">IF(ISREF(INDIRECT(A3&amp;"!A1")),HYPERLINK("#"&amp;A3&amp;"!A1",LEFT(A3,2)&amp;"-"&amp;MID(A3,3,3)&amp;"-"&amp;RIGHT(A3,2)),HYPERLINK(,LEFT(A3,2)&amp;"-"&amp;MID(A3,3,3)&amp;"-"&amp;RIGHT(A3,2)))</f>
         <v>SJ-PM2-02</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -3310,6 +3361,51 @@
       </c>
       <c r="D20" s="10" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SJ-PM2-30</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SJ-PM2-31</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SJ-PM2-32</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/pm2_rules_summary_template.xlsx
+++ b/pm2_rules_summary_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55032AB5-C789-47CA-A55C-7691CFF4EB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677BEAF8-FD8E-457E-B6CB-BD64AB7F5109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
   <sheets>
     <sheet name="ruleDataItems" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="248">
   <si>
     <t>Rule</t>
   </si>
@@ -711,63 +711,6 @@
     <t>SJ-PM2-19</t>
   </si>
   <si>
-    <t>SJPM201</t>
-  </si>
-  <si>
-    <t>SJPM202</t>
-  </si>
-  <si>
-    <t>SJPM203</t>
-  </si>
-  <si>
-    <t>SJPM204</t>
-  </si>
-  <si>
-    <t>SJPM205</t>
-  </si>
-  <si>
-    <t>SJPM206</t>
-  </si>
-  <si>
-    <t>SJPM207</t>
-  </si>
-  <si>
-    <t>SJPM208</t>
-  </si>
-  <si>
-    <t>SJPM209</t>
-  </si>
-  <si>
-    <t>SJPM210</t>
-  </si>
-  <si>
-    <t>SJPM211</t>
-  </si>
-  <si>
-    <t>SJPM212</t>
-  </si>
-  <si>
-    <t>SJPM213</t>
-  </si>
-  <si>
-    <t>SJPM214</t>
-  </si>
-  <si>
-    <t>SJPM215</t>
-  </si>
-  <si>
-    <t>SJPM216</t>
-  </si>
-  <si>
-    <t>SJPM217</t>
-  </si>
-  <si>
-    <t>SJPM218</t>
-  </si>
-  <si>
-    <t>SJPM219</t>
-  </si>
-  <si>
     <t>Dir_Through_Lanes must exist where F_System = 1 and Facility_Type in (1;2;6) and RoadEventCollectionMethods Pav_Rep_Method = 2</t>
   </si>
   <si>
@@ -823,15 +766,6 @@
   </si>
   <si>
     <t xml:space="preserve">IRI values &lt; 30 and &gt; 400 should be reviewed and where valid; explanation provided in submission comments. </t>
-  </si>
-  <si>
-    <t>SJPM230</t>
-  </si>
-  <si>
-    <t>SJPM231</t>
-  </si>
-  <si>
-    <t>SJPM232</t>
   </si>
   <si>
     <t>Cracking_Percent event segments must align with with the Begin and End points for IRI segments.</t>
@@ -975,7 +909,14 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <u/>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <u/>
@@ -1295,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
   <dimension ref="A1:GM111"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B39" sqref="B38:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,7 +1728,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1802,7 +1743,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B22" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1817,7 +1758,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="B23" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3033,7 +2974,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3041,7 +2982,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="5" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="85.140625" style="1" customWidth="1"/>
@@ -3052,7 +2993,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3078,39 +3019,39 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>223</v>
+      <c r="A2" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="B2" s="5" t="str">
-        <f ca="1">IF(ISREF(INDIRECT(A2&amp;"!A1")),HYPERLINK("#"&amp;A2&amp;"!A1",LEFT(A2,2)&amp;"-"&amp;MID(A2,3,3)&amp;"-"&amp;RIGHT(A2,2)),HYPERLINK(,LEFT(A2,2)&amp;"-"&amp;MID(A2,3,3)&amp;"-"&amp;RIGHT(A2,2)))</f>
+        <f t="shared" ref="B2:B23" ca="1" si="0">IF(ISREF(INDIRECT(SUBSTITUTE(A2,"-","")&amp;"!A1")),HYPERLINK("#"&amp;SUBSTITUTE(A2,"-","")&amp;"!A1",A2),HYPERLINK(,A2))</f>
         <v>SJ-PM2-01</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>224</v>
+      <c r="A3" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="B3" s="5" t="str">
-        <f t="shared" ref="B3:B23" ca="1" si="0">IF(ISREF(INDIRECT(A3&amp;"!A1")),HYPERLINK("#"&amp;A3&amp;"!A1",LEFT(A3,2)&amp;"-"&amp;MID(A3,3,3)&amp;"-"&amp;RIGHT(A3,2)),HYPERLINK(,LEFT(A3,2)&amp;"-"&amp;MID(A3,3,3)&amp;"-"&amp;RIGHT(A3,2)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>SJ-PM2-02</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>225</v>
+      <c r="A4" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3120,12 +3061,12 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>226</v>
+      <c r="A5" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3135,12 +3076,12 @@
         <v>41</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>227</v>
+      <c r="A6" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3150,12 +3091,12 @@
         <v>41</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>228</v>
+      <c r="A7" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3165,12 +3106,12 @@
         <v>41</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>229</v>
+      <c r="A8" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3180,12 +3121,12 @@
         <v>40</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>230</v>
+      <c r="A9" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3195,12 +3136,12 @@
         <v>40</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>231</v>
+      <c r="A10" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3210,12 +3151,12 @@
         <v>40</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>232</v>
+      <c r="A11" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3225,12 +3166,12 @@
         <v>44</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>233</v>
+      <c r="A12" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3240,12 +3181,12 @@
         <v>44</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>234</v>
+      <c r="A13" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3255,12 +3196,12 @@
         <v>44</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>235</v>
+      <c r="A14" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3270,12 +3211,12 @@
         <v>43</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>236</v>
+      <c r="A15" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3285,12 +3226,12 @@
         <v>43</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>237</v>
+      <c r="A16" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3300,12 +3241,12 @@
         <v>43</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>238</v>
+      <c r="A17" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3315,12 +3256,12 @@
         <v>42</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>239</v>
+      <c r="A18" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3330,12 +3271,12 @@
         <v>42</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>240</v>
+      <c r="A19" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3345,12 +3286,12 @@
         <v>42</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>241</v>
+      <c r="A20" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="B20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3360,12 +3301,12 @@
         <v>40</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>261</v>
+      <c r="A21" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="B21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3375,12 +3316,12 @@
         <v>44</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>262</v>
+      <c r="A22" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="B22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3390,12 +3331,12 @@
         <v>42</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>263</v>
+      <c r="A23" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="B23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3405,15 +3346,282 @@
         <v>43</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>266</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H107" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B108">
+  <conditionalFormatting sqref="B24:B108">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISREF(INDIRECT(A24&amp;"!A1"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B23">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISREF(INDIRECT(A2&amp;"!A1"))</formula>
+      <formula>ISREF(INDIRECT(SUBSTITUTE(A2, "-","")&amp;"!A1"))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
